--- a/【赵文博】网申管理表-协议-201107.xlsx
+++ b/【赵文博】网申管理表-协议-201107.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaowenbo/前途出国留学资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A7D91C-6154-7647-9DA3-B640B751CC11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C6C7B-810E-CE43-BF4E-F34B75295E81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27680" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定校信息" sheetId="1" r:id="rId1"/>
@@ -1298,7 +1298,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1661,25 +1661,25 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="4"/>
+  <cellXfs count="56">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1689,43 +1689,43 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1767,7 +1767,7 @@
     <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1809,32 +1809,35 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2454,10 +2457,10 @@
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2613,7 +2616,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="29"/>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="55" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="31" t="s">
@@ -2691,7 +2694,7 @@
         <v>55</v>
       </c>
       <c r="G3" s="29"/>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="55" t="s">
         <v>56</v>
       </c>
       <c r="I3" s="31" t="s">
@@ -2773,7 +2776,7 @@
       <c r="G4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="47" t="s">
         <v>70</v>
       </c>
       <c r="I4" s="31" t="s">
@@ -2853,7 +2856,7 @@
         <v>80</v>
       </c>
       <c r="G5" s="29"/>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="55" t="s">
         <v>81</v>
       </c>
       <c r="I5" s="31" t="s">
@@ -2935,7 +2938,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="33"/>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="55" t="s">
         <v>93</v>
       </c>
       <c r="I6" s="31" t="s">
@@ -3019,7 +3022,7 @@
       <c r="G7" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="55" t="s">
         <v>106</v>
       </c>
       <c r="I7" s="31" t="s">
@@ -3105,7 +3108,7 @@
         <v>119</v>
       </c>
       <c r="G8" s="35"/>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="55" t="s">
         <v>120</v>
       </c>
       <c r="I8" s="31" t="s">
@@ -3189,7 +3192,7 @@
         <v>130</v>
       </c>
       <c r="G9" s="35"/>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="55" t="s">
         <v>131</v>
       </c>
       <c r="I9" s="31" t="s">
@@ -3273,7 +3276,7 @@
         <v>139</v>
       </c>
       <c r="G10" s="35"/>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="55" t="s">
         <v>140</v>
       </c>
       <c r="I10" s="31" t="s">
@@ -3361,7 +3364,7 @@
       <c r="G11" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="55" t="s">
         <v>154</v>
       </c>
       <c r="I11" s="31" t="s">
@@ -3626,6 +3629,16 @@
     <hyperlink ref="S11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="S10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H2" r:id="rId4" xr:uid="{C0E72534-128B-CA4B-8B4E-38E32481DFB0}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{CE017148-3C49-DA43-90F5-9E104CE7E0C6}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{E74F2909-401B-0F4A-A17B-F2C5D4FCC872}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{AFB18D54-4B96-E442-9A2A-004D21205C80}"/>
+    <hyperlink ref="H6" r:id="rId8" xr:uid="{C9C59CE1-1BE4-6E43-ADBB-CABE63DD343E}"/>
+    <hyperlink ref="H7" r:id="rId9" xr:uid="{1270D7F8-8866-E64C-A59C-DC0E8B38370E}"/>
+    <hyperlink ref="H8" r:id="rId10" location="_ga=2.130405900.205285809.1603292721-1089410392.1566264273" xr:uid="{C23190A6-90AC-5B45-B131-9CC30FCD4184}"/>
+    <hyperlink ref="H9" r:id="rId11" xr:uid="{C791CF47-CEAE-4B4D-86C2-2968BD1391F4}"/>
+    <hyperlink ref="H10" r:id="rId12" xr:uid="{93FBF727-ABD9-D94B-BB4C-40EE049BE5C1}"/>
+    <hyperlink ref="H11" r:id="rId13" xr:uid="{0655631B-04EE-8645-B8C7-A88C2DD1D580}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -3770,7 +3783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="30">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="45">
       <c r="A3" s="4" t="s">
         <v>179</v>
       </c>
